--- a/biology/Médecine/Stéphane_Nadaud/Stéphane_Nadaud.xlsx
+++ b/biology/Médecine/Stéphane_Nadaud/Stéphane_Nadaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Nadaud</t>
+          <t>Stéphane_Nadaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stéphane Nadaud (né en 1969 à Libourne) est un médecin pédopsychiatre et philosophe français. Il a été pédopsychiatre à l'hôpital de Ville-Évrard, médecin-directeur du C.M.P. des Lilas (93) et exerce maintenant en libéral.
 Après des études de médecine, il se spécialise en psychiatrie, puis en psychiatrie de l'enfant. Il a soutenu la première thèse française consacrée à l'homoparentalité. Il a été rédacteur en chef de la revue Chimères fondée par Gilles Deleuze et Félix Guattari en 1987.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Nadaud</t>
+          <t>Stéphane_Nadaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Homoparentalité : une nouvelle chance pour la famille ?, Fayard, Paris, 2002.  (ISBN 2-213-61161-0)
 Homoparentalité hors-la-loi, Paris, Éditions Lignes, 2006.  (ISBN 2-84938-052-0)
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Nadaud</t>
+          <t>Stéphane_Nadaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Pays-Bas Israël WorldCat 
 « Les limbes ou l’anté-purgatoire : Qu’en est-il de la joute à la fin du XXe siècle ? », dans Chimères, 2009.
